--- a/storage/excel/bases.xlsx
+++ b/storage/excel/bases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\CCNIS\storage\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4779,7 +4779,7 @@
   <dimension ref="A1:C517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B496" sqref="B496:B517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4803,7 +4803,7 @@
         <v>925</v>
       </c>
       <c r="B2">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -4814,7 +4814,7 @@
         <v>926</v>
       </c>
       <c r="B3">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
@@ -4825,7 +4825,7 @@
         <v>927</v>
       </c>
       <c r="B4">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
@@ -4836,7 +4836,7 @@
         <v>928</v>
       </c>
       <c r="B5">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -4847,7 +4847,7 @@
         <v>929</v>
       </c>
       <c r="B6">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
         <v>49</v>
@@ -4858,7 +4858,7 @@
         <v>930</v>
       </c>
       <c r="B7">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
@@ -4869,7 +4869,7 @@
         <v>931</v>
       </c>
       <c r="B8">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
@@ -4880,7 +4880,7 @@
         <v>932</v>
       </c>
       <c r="B9">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -4891,7 +4891,7 @@
         <v>933</v>
       </c>
       <c r="B10">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -4902,7 +4902,7 @@
         <v>934</v>
       </c>
       <c r="B11">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
@@ -4913,7 +4913,7 @@
         <v>935</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -4924,7 +4924,7 @@
         <v>936</v>
       </c>
       <c r="B13">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
         <v>59</v>
@@ -4935,7 +4935,7 @@
         <v>937</v>
       </c>
       <c r="B14">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -4946,7 +4946,7 @@
         <v>938</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
@@ -4957,7 +4957,7 @@
         <v>939</v>
       </c>
       <c r="B16">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
         <v>64</v>
@@ -4968,7 +4968,7 @@
         <v>940</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
         <v>65</v>
@@ -4979,7 +4979,7 @@
         <v>941</v>
       </c>
       <c r="B18">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
         <v>66</v>
@@ -4990,7 +4990,7 @@
         <v>942</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
@@ -5001,7 +5001,7 @@
         <v>943</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -5012,7 +5012,7 @@
         <v>944</v>
       </c>
       <c r="B21">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
         <v>69</v>
@@ -5023,7 +5023,7 @@
         <v>945</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
         <v>72</v>
@@ -5034,7 +5034,7 @@
         <v>946</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
         <v>73</v>
@@ -5045,7 +5045,7 @@
         <v>947</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -5056,7 +5056,7 @@
         <v>948</v>
       </c>
       <c r="B25">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
@@ -5067,7 +5067,7 @@
         <v>949</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
@@ -5078,7 +5078,7 @@
         <v>950</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
         <v>43</v>
@@ -5089,7 +5089,7 @@
         <v>957</v>
       </c>
       <c r="B28">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -5100,7 +5100,7 @@
         <v>955</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
         <v>62</v>
@@ -5111,7 +5111,7 @@
         <v>956</v>
       </c>
       <c r="B30">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
         <v>71</v>
@@ -5122,7 +5122,7 @@
         <v>951</v>
       </c>
       <c r="B31">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
         <v>78</v>
@@ -5133,7 +5133,7 @@
         <v>952</v>
       </c>
       <c r="B32">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C32" t="s">
         <v>79</v>
@@ -5144,7 +5144,7 @@
         <v>953</v>
       </c>
       <c r="B33">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
         <v>80</v>
@@ -5155,7 +5155,7 @@
         <v>954</v>
       </c>
       <c r="B34">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
         <v>81</v>
@@ -5166,7 +5166,7 @@
         <v>958</v>
       </c>
       <c r="B35">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C35" t="s">
         <v>83</v>
@@ -5177,7 +5177,7 @@
         <v>959</v>
       </c>
       <c r="B36">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
         <v>84</v>
@@ -5188,7 +5188,7 @@
         <v>960</v>
       </c>
       <c r="B37">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
         <v>85</v>
@@ -5199,7 +5199,7 @@
         <v>961</v>
       </c>
       <c r="B38">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
         <v>86</v>
@@ -5210,7 +5210,7 @@
         <v>962</v>
       </c>
       <c r="B39">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
         <v>88</v>
@@ -5221,7 +5221,7 @@
         <v>963</v>
       </c>
       <c r="B40">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
         <v>89</v>
@@ -5232,7 +5232,7 @@
         <v>964</v>
       </c>
       <c r="B41">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
         <v>90</v>
@@ -5243,7 +5243,7 @@
         <v>965</v>
       </c>
       <c r="B42">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
         <v>91</v>
@@ -5254,7 +5254,7 @@
         <v>966</v>
       </c>
       <c r="B43">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
         <v>92</v>
@@ -5265,7 +5265,7 @@
         <v>967</v>
       </c>
       <c r="B44">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
         <v>93</v>
@@ -5276,7 +5276,7 @@
         <v>968</v>
       </c>
       <c r="B45">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
         <v>95</v>
@@ -5287,7 +5287,7 @@
         <v>969</v>
       </c>
       <c r="B46">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
         <v>96</v>
@@ -5298,7 +5298,7 @@
         <v>970</v>
       </c>
       <c r="B47">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
         <v>97</v>
@@ -5309,7 +5309,7 @@
         <v>971</v>
       </c>
       <c r="B48">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
         <v>98</v>
@@ -5320,7 +5320,7 @@
         <v>972</v>
       </c>
       <c r="B49">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
         <v>99</v>
@@ -5331,7 +5331,7 @@
         <v>980</v>
       </c>
       <c r="B50">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
         <v>70</v>
@@ -5342,7 +5342,7 @@
         <v>981</v>
       </c>
       <c r="B51">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
         <v>100</v>
@@ -5353,7 +5353,7 @@
         <v>973</v>
       </c>
       <c r="B52">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
         <v>101</v>
@@ -5364,7 +5364,7 @@
         <v>974</v>
       </c>
       <c r="B53">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
         <v>102</v>
@@ -5375,7 +5375,7 @@
         <v>975</v>
       </c>
       <c r="B54">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
         <v>103</v>
@@ -5386,7 +5386,7 @@
         <v>976</v>
       </c>
       <c r="B55">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C55" t="s">
         <v>104</v>
@@ -5397,7 +5397,7 @@
         <v>977</v>
       </c>
       <c r="B56">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
         <v>105</v>
@@ -5408,7 +5408,7 @@
         <v>978</v>
       </c>
       <c r="B57">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
         <v>106</v>
@@ -5419,7 +5419,7 @@
         <v>979</v>
       </c>
       <c r="B58">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
         <v>107</v>
@@ -5430,7 +5430,7 @@
         <v>982</v>
       </c>
       <c r="B59">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
         <v>108</v>
@@ -5441,7 +5441,7 @@
         <v>983</v>
       </c>
       <c r="B60">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
         <v>109</v>
@@ -5452,7 +5452,7 @@
         <v>984</v>
       </c>
       <c r="B61">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
         <v>110</v>
@@ -5463,7 +5463,7 @@
         <v>985</v>
       </c>
       <c r="B62">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
         <v>111</v>
@@ -5474,7 +5474,7 @@
         <v>986</v>
       </c>
       <c r="B63">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
         <v>112</v>
@@ -5485,7 +5485,7 @@
         <v>987</v>
       </c>
       <c r="B64">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
         <v>113</v>
@@ -5496,7 +5496,7 @@
         <v>988</v>
       </c>
       <c r="B65">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
         <v>114</v>
@@ -5507,7 +5507,7 @@
         <v>989</v>
       </c>
       <c r="B66">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C66" t="s">
         <v>115</v>
@@ -5518,7 +5518,7 @@
         <v>990</v>
       </c>
       <c r="B67">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
         <v>116</v>
@@ -5529,7 +5529,7 @@
         <v>991</v>
       </c>
       <c r="B68">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C68" t="s">
         <v>117</v>
@@ -5540,7 +5540,7 @@
         <v>992</v>
       </c>
       <c r="B69">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
         <v>118</v>
@@ -5551,7 +5551,7 @@
         <v>993</v>
       </c>
       <c r="B70">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s">
         <v>119</v>
@@ -5562,7 +5562,7 @@
         <v>994</v>
       </c>
       <c r="B71">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
         <v>120</v>
@@ -5573,7 +5573,7 @@
         <v>995</v>
       </c>
       <c r="B72">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
         <v>121</v>
@@ -5584,7 +5584,7 @@
         <v>996</v>
       </c>
       <c r="B73">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
         <v>122</v>
@@ -5595,7 +5595,7 @@
         <v>997</v>
       </c>
       <c r="B74">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
         <v>123</v>
@@ -5606,7 +5606,7 @@
         <v>998</v>
       </c>
       <c r="B75">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C75" t="s">
         <v>124</v>
@@ -5617,7 +5617,7 @@
         <v>999</v>
       </c>
       <c r="B76">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C76" t="s">
         <v>125</v>
@@ -5628,7 +5628,7 @@
         <v>1000</v>
       </c>
       <c r="B77">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C77" t="s">
         <v>126</v>
@@ -5639,7 +5639,7 @@
         <v>1001</v>
       </c>
       <c r="B78">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C78" t="s">
         <v>127</v>
@@ -5650,7 +5650,7 @@
         <v>1002</v>
       </c>
       <c r="B79">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C79" t="s">
         <v>128</v>
@@ -5661,7 +5661,7 @@
         <v>1003</v>
       </c>
       <c r="B80">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="C80" t="s">
         <v>129</v>
@@ -5672,7 +5672,7 @@
         <v>1004</v>
       </c>
       <c r="B81">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="C81" t="s">
         <v>130</v>
@@ -5683,7 +5683,7 @@
         <v>1005</v>
       </c>
       <c r="B82">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="C82" t="s">
         <v>131</v>
@@ -5694,7 +5694,7 @@
         <v>1006</v>
       </c>
       <c r="B83">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="C83" t="s">
         <v>132</v>
@@ -5705,7 +5705,7 @@
         <v>1007</v>
       </c>
       <c r="B84">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
         <v>133</v>
@@ -5716,7 +5716,7 @@
         <v>1008</v>
       </c>
       <c r="B85">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="C85" t="s">
         <v>134</v>
@@ -5727,7 +5727,7 @@
         <v>1009</v>
       </c>
       <c r="B86">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="C86" t="s">
         <v>135</v>
@@ -5738,7 +5738,7 @@
         <v>1574</v>
       </c>
       <c r="B87">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -5749,7 +5749,7 @@
         <v>1576</v>
       </c>
       <c r="B88">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -5760,7 +5760,7 @@
         <v>1577</v>
       </c>
       <c r="B89">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
@@ -5771,7 +5771,7 @@
         <v>1578</v>
       </c>
       <c r="B90">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -5782,7 +5782,7 @@
         <v>1579</v>
       </c>
       <c r="B91">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -5793,7 +5793,7 @@
         <v>1580</v>
       </c>
       <c r="B92">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C92" t="s">
         <v>15</v>
@@ -5804,7 +5804,7 @@
         <v>1581</v>
       </c>
       <c r="B93">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C93" t="s">
         <v>16</v>
@@ -5815,7 +5815,7 @@
         <v>1582</v>
       </c>
       <c r="B94">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C94" t="s">
         <v>17</v>
@@ -5826,7 +5826,7 @@
         <v>1583</v>
       </c>
       <c r="B95">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
@@ -5837,7 +5837,7 @@
         <v>1575</v>
       </c>
       <c r="B96">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C96" t="s">
         <v>19</v>
@@ -5848,7 +5848,7 @@
         <v>1584</v>
       </c>
       <c r="B97">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C97" t="s">
         <v>20</v>
@@ -5859,7 +5859,7 @@
         <v>1158</v>
       </c>
       <c r="B98">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C98" t="s">
         <v>41</v>
@@ -5870,7 +5870,7 @@
         <v>1179</v>
       </c>
       <c r="B99">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C99" t="s">
         <v>138</v>
@@ -5881,7 +5881,7 @@
         <v>1159</v>
       </c>
       <c r="B100">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C100" t="s">
         <v>139</v>
@@ -5892,7 +5892,7 @@
         <v>1160</v>
       </c>
       <c r="B101">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C101" t="s">
         <v>140</v>
@@ -5903,7 +5903,7 @@
         <v>1161</v>
       </c>
       <c r="B102">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C102" t="s">
         <v>141</v>
@@ -5914,7 +5914,7 @@
         <v>1162</v>
       </c>
       <c r="B103">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C103" t="s">
         <v>142</v>
@@ -5925,7 +5925,7 @@
         <v>1163</v>
       </c>
       <c r="B104">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C104" t="s">
         <v>143</v>
@@ -5936,7 +5936,7 @@
         <v>1164</v>
       </c>
       <c r="B105">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C105" t="s">
         <v>144</v>
@@ -5947,7 +5947,7 @@
         <v>1165</v>
       </c>
       <c r="B106">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C106" t="s">
         <v>145</v>
@@ -5958,7 +5958,7 @@
         <v>1166</v>
       </c>
       <c r="B107">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s">
         <v>146</v>
@@ -5969,7 +5969,7 @@
         <v>1167</v>
       </c>
       <c r="B108">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C108" t="s">
         <v>147</v>
@@ -5980,7 +5980,7 @@
         <v>1168</v>
       </c>
       <c r="B109">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C109" t="s">
         <v>148</v>
@@ -5991,7 +5991,7 @@
         <v>1180</v>
       </c>
       <c r="B110">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C110" t="s">
         <v>149</v>
@@ -6002,7 +6002,7 @@
         <v>1169</v>
       </c>
       <c r="B111">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C111" t="s">
         <v>153</v>
@@ -6013,7 +6013,7 @@
         <v>1170</v>
       </c>
       <c r="B112">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C112" t="s">
         <v>154</v>
@@ -6024,7 +6024,7 @@
         <v>1171</v>
       </c>
       <c r="B113">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C113" t="s">
         <v>155</v>
@@ -6035,7 +6035,7 @@
         <v>1172</v>
       </c>
       <c r="B114">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C114" t="s">
         <v>157</v>
@@ -6046,7 +6046,7 @@
         <v>1174</v>
       </c>
       <c r="B115">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C115" t="s">
         <v>158</v>
@@ -6057,7 +6057,7 @@
         <v>1175</v>
       </c>
       <c r="B116">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C116" t="s">
         <v>159</v>
@@ -6068,7 +6068,7 @@
         <v>1176</v>
       </c>
       <c r="B117">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C117" t="s">
         <v>160</v>
@@ -6079,7 +6079,7 @@
         <v>1177</v>
       </c>
       <c r="B118">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C118" t="s">
         <v>161</v>
@@ -6090,7 +6090,7 @@
         <v>1178</v>
       </c>
       <c r="B119">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C119" t="s">
         <v>162</v>
@@ -6101,7 +6101,7 @@
         <v>1184</v>
       </c>
       <c r="B120">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
@@ -6112,7 +6112,7 @@
         <v>1585</v>
       </c>
       <c r="B121">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C121" t="s">
         <v>21</v>
@@ -6123,7 +6123,7 @@
         <v>1586</v>
       </c>
       <c r="B122">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C122" t="s">
         <v>22</v>
@@ -6134,7 +6134,7 @@
         <v>1587</v>
       </c>
       <c r="B123">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C123" t="s">
         <v>23</v>
@@ -6145,7 +6145,7 @@
         <v>1588</v>
       </c>
       <c r="B124">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C124" t="s">
         <v>24</v>
@@ -6156,7 +6156,7 @@
         <v>1589</v>
       </c>
       <c r="B125">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C125" t="s">
         <v>25</v>
@@ -6167,7 +6167,7 @@
         <v>1590</v>
       </c>
       <c r="B126">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C126" t="s">
         <v>26</v>
@@ -6178,7 +6178,7 @@
         <v>1591</v>
       </c>
       <c r="B127">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
@@ -6189,7 +6189,7 @@
         <v>1592</v>
       </c>
       <c r="B128">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -6200,7 +6200,7 @@
         <v>1181</v>
       </c>
       <c r="B129">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C129" t="s">
         <v>150</v>
@@ -6211,7 +6211,7 @@
         <v>1182</v>
       </c>
       <c r="B130">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C130" t="s">
         <v>151</v>
@@ -6222,7 +6222,7 @@
         <v>1183</v>
       </c>
       <c r="B131">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C131" t="s">
         <v>152</v>
@@ -6233,7 +6233,7 @@
         <v>1185</v>
       </c>
       <c r="B132">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C132" t="s">
         <v>163</v>
@@ -6244,7 +6244,7 @@
         <v>1186</v>
       </c>
       <c r="B133">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C133" t="s">
         <v>164</v>
@@ -6255,7 +6255,7 @@
         <v>1187</v>
       </c>
       <c r="B134">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C134" t="s">
         <v>165</v>
@@ -6266,7 +6266,7 @@
         <v>1188</v>
       </c>
       <c r="B135">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C135" t="s">
         <v>166</v>
@@ -6277,7 +6277,7 @@
         <v>1189</v>
       </c>
       <c r="B136">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C136" t="s">
         <v>167</v>
@@ -6288,7 +6288,7 @@
         <v>1190</v>
       </c>
       <c r="B137">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C137" t="s">
         <v>168</v>
@@ -6299,7 +6299,7 @@
         <v>1191</v>
       </c>
       <c r="B138">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C138" t="s">
         <v>169</v>
@@ -6310,7 +6310,7 @@
         <v>1192</v>
       </c>
       <c r="B139">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C139" t="s">
         <v>170</v>
@@ -6321,7 +6321,7 @@
         <v>1193</v>
       </c>
       <c r="B140">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C140" t="s">
         <v>171</v>
@@ -6332,7 +6332,7 @@
         <v>1194</v>
       </c>
       <c r="B141">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C141" t="s">
         <v>172</v>
@@ -6343,7 +6343,7 @@
         <v>1195</v>
       </c>
       <c r="B142">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C142" t="s">
         <v>173</v>
@@ -6354,7 +6354,7 @@
         <v>1196</v>
       </c>
       <c r="B143">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C143" t="s">
         <v>174</v>
@@ -6365,7 +6365,7 @@
         <v>1197</v>
       </c>
       <c r="B144">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C144" t="s">
         <v>175</v>
@@ -6376,7 +6376,7 @@
         <v>1203</v>
       </c>
       <c r="B145">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C145" t="s">
         <v>176</v>
@@ -6387,7 +6387,7 @@
         <v>1206</v>
       </c>
       <c r="B146">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C146" t="s">
         <v>177</v>
@@ -6398,7 +6398,7 @@
         <v>1207</v>
       </c>
       <c r="B147">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C147" t="s">
         <v>178</v>
@@ -6409,7 +6409,7 @@
         <v>1198</v>
       </c>
       <c r="B148">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C148" t="s">
         <v>179</v>
@@ -6420,7 +6420,7 @@
         <v>1200</v>
       </c>
       <c r="B149">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C149" t="s">
         <v>180</v>
@@ -6431,7 +6431,7 @@
         <v>1201</v>
       </c>
       <c r="B150">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C150" t="s">
         <v>181</v>
@@ -6442,7 +6442,7 @@
         <v>1202</v>
       </c>
       <c r="B151">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C151" t="s">
         <v>182</v>
@@ -6453,7 +6453,7 @@
         <v>1204</v>
       </c>
       <c r="B152">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C152" t="s">
         <v>184</v>
@@ -6464,7 +6464,7 @@
         <v>1205</v>
       </c>
       <c r="B153">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C153" t="s">
         <v>185</v>
@@ -6475,7 +6475,7 @@
         <v>1208</v>
       </c>
       <c r="B154">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C154" t="s">
         <v>187</v>
@@ -6486,7 +6486,7 @@
         <v>1209</v>
       </c>
       <c r="B155">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C155" t="s">
         <v>188</v>
@@ -6497,7 +6497,7 @@
         <v>1210</v>
       </c>
       <c r="B156">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C156" t="s">
         <v>189</v>
@@ -6508,7 +6508,7 @@
         <v>1211</v>
       </c>
       <c r="B157">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C157" t="s">
         <v>190</v>
@@ -6519,7 +6519,7 @@
         <v>1212</v>
       </c>
       <c r="B158">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C158" t="s">
         <v>191</v>
@@ -6530,7 +6530,7 @@
         <v>1213</v>
       </c>
       <c r="B159">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C159" t="s">
         <v>192</v>
@@ -6541,7 +6541,7 @@
         <v>1214</v>
       </c>
       <c r="B160">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C160" t="s">
         <v>193</v>
@@ -6552,7 +6552,7 @@
         <v>1593</v>
       </c>
       <c r="B161">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
@@ -6563,7 +6563,7 @@
         <v>1594</v>
       </c>
       <c r="B162">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C162" t="s">
         <v>30</v>
@@ -6574,7 +6574,7 @@
         <v>1595</v>
       </c>
       <c r="B163">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C163" t="s">
         <v>31</v>
@@ -6585,7 +6585,7 @@
         <v>1242</v>
       </c>
       <c r="B164">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C164" t="s">
         <v>32</v>
@@ -6596,7 +6596,7 @@
         <v>1596</v>
       </c>
       <c r="B165">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C165" t="s">
         <v>33</v>
@@ -6607,7 +6607,7 @@
         <v>1243</v>
       </c>
       <c r="B166">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C166" t="s">
         <v>37</v>
@@ -6618,7 +6618,7 @@
         <v>1225</v>
       </c>
       <c r="B167">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C167" t="s">
         <v>42</v>
@@ -6629,7 +6629,7 @@
         <v>1241</v>
       </c>
       <c r="B168">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C168" t="s">
         <v>51</v>
@@ -6640,7 +6640,7 @@
         <v>1239</v>
       </c>
       <c r="B169">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C169" t="s">
         <v>183</v>
@@ -6651,7 +6651,7 @@
         <v>1224</v>
       </c>
       <c r="B170">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C170" t="s">
         <v>186</v>
@@ -6662,7 +6662,7 @@
         <v>1215</v>
       </c>
       <c r="B171">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C171" t="s">
         <v>194</v>
@@ -6673,7 +6673,7 @@
         <v>1216</v>
       </c>
       <c r="B172">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C172" t="s">
         <v>195</v>
@@ -6684,7 +6684,7 @@
         <v>1217</v>
       </c>
       <c r="B173">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C173" t="s">
         <v>196</v>
@@ -6695,7 +6695,7 @@
         <v>1218</v>
       </c>
       <c r="B174">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C174" t="s">
         <v>197</v>
@@ -6706,7 +6706,7 @@
         <v>1219</v>
       </c>
       <c r="B175">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C175" t="s">
         <v>198</v>
@@ -6717,7 +6717,7 @@
         <v>1220</v>
       </c>
       <c r="B176">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C176" t="s">
         <v>199</v>
@@ -6728,7 +6728,7 @@
         <v>1221</v>
       </c>
       <c r="B177">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C177" t="s">
         <v>200</v>
@@ -6739,7 +6739,7 @@
         <v>1222</v>
       </c>
       <c r="B178">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C178" t="s">
         <v>201</v>
@@ -6750,7 +6750,7 @@
         <v>1240</v>
       </c>
       <c r="B179">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C179" t="s">
         <v>202</v>
@@ -6761,7 +6761,7 @@
         <v>1223</v>
       </c>
       <c r="B180">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C180" t="s">
         <v>203</v>
@@ -6772,7 +6772,7 @@
         <v>1226</v>
       </c>
       <c r="B181">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C181" t="s">
         <v>205</v>
@@ -6783,7 +6783,7 @@
         <v>1227</v>
       </c>
       <c r="B182">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C182" t="s">
         <v>206</v>
@@ -6794,7 +6794,7 @@
         <v>1228</v>
       </c>
       <c r="B183">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C183" t="s">
         <v>207</v>
@@ -6805,7 +6805,7 @@
         <v>1229</v>
       </c>
       <c r="B184">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C184" t="s">
         <v>208</v>
@@ -6816,7 +6816,7 @@
         <v>1230</v>
       </c>
       <c r="B185">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C185" t="s">
         <v>209</v>
@@ -6827,7 +6827,7 @@
         <v>1231</v>
       </c>
       <c r="B186">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C186" t="s">
         <v>210</v>
@@ -6838,7 +6838,7 @@
         <v>1232</v>
       </c>
       <c r="B187">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C187" t="s">
         <v>211</v>
@@ -6849,7 +6849,7 @@
         <v>1233</v>
       </c>
       <c r="B188">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C188" t="s">
         <v>212</v>
@@ -6860,7 +6860,7 @@
         <v>1234</v>
       </c>
       <c r="B189">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C189" t="s">
         <v>213</v>
@@ -6871,7 +6871,7 @@
         <v>1236</v>
       </c>
       <c r="B190">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C190" t="s">
         <v>214</v>
@@ -6882,7 +6882,7 @@
         <v>1237</v>
       </c>
       <c r="B191">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C191" t="s">
         <v>215</v>
@@ -6893,7 +6893,7 @@
         <v>1238</v>
       </c>
       <c r="B192">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C192" t="s">
         <v>216</v>
@@ -6904,7 +6904,7 @@
         <v>1597</v>
       </c>
       <c r="B193">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C193" t="s">
         <v>21</v>
@@ -6915,7 +6915,7 @@
         <v>1598</v>
       </c>
       <c r="B194">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C194" t="s">
         <v>34</v>
@@ -6926,7 +6926,7 @@
         <v>1599</v>
       </c>
       <c r="B195">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C195" t="s">
         <v>35</v>
@@ -6937,7 +6937,7 @@
         <v>1600</v>
       </c>
       <c r="B196">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C196" t="s">
         <v>36</v>
@@ -6948,7 +6948,7 @@
         <v>1244</v>
       </c>
       <c r="B197">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C197" t="s">
         <v>44</v>
@@ -6959,7 +6959,7 @@
         <v>1245</v>
       </c>
       <c r="B198">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C198" t="s">
         <v>56</v>
@@ -6970,7 +6970,7 @@
         <v>1246</v>
       </c>
       <c r="B199">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C199" t="s">
         <v>63</v>
@@ -6981,7 +6981,7 @@
         <v>1247</v>
       </c>
       <c r="B200">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C200" t="s">
         <v>77</v>
@@ -6992,7 +6992,7 @@
         <v>1260</v>
       </c>
       <c r="B201">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C201" t="s">
         <v>82</v>
@@ -7003,7 +7003,7 @@
         <v>1248</v>
       </c>
       <c r="B202">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C202" t="s">
         <v>217</v>
@@ -7014,7 +7014,7 @@
         <v>1249</v>
       </c>
       <c r="B203">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C203" t="s">
         <v>218</v>
@@ -7025,7 +7025,7 @@
         <v>1250</v>
       </c>
       <c r="B204">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C204" t="s">
         <v>219</v>
@@ -7036,7 +7036,7 @@
         <v>1251</v>
       </c>
       <c r="B205">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C205" t="s">
         <v>220</v>
@@ -7047,7 +7047,7 @@
         <v>1252</v>
       </c>
       <c r="B206">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C206" t="s">
         <v>221</v>
@@ -7058,7 +7058,7 @@
         <v>1253</v>
       </c>
       <c r="B207">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C207" t="s">
         <v>222</v>
@@ -7069,7 +7069,7 @@
         <v>1254</v>
       </c>
       <c r="B208">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C208" t="s">
         <v>223</v>
@@ -7080,7 +7080,7 @@
         <v>1255</v>
       </c>
       <c r="B209">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C209" t="s">
         <v>224</v>
@@ -7091,7 +7091,7 @@
         <v>1256</v>
       </c>
       <c r="B210">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C210" t="s">
         <v>171</v>
@@ -7102,7 +7102,7 @@
         <v>1257</v>
       </c>
       <c r="B211">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C211" t="s">
         <v>225</v>
@@ -7113,7 +7113,7 @@
         <v>1258</v>
       </c>
       <c r="B212">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C212" t="s">
         <v>226</v>
@@ -7124,7 +7124,7 @@
         <v>1259</v>
       </c>
       <c r="B213">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C213" t="s">
         <v>174</v>
@@ -7135,7 +7135,7 @@
         <v>1261</v>
       </c>
       <c r="B214">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C214" t="s">
         <v>227</v>
@@ -7146,7 +7146,7 @@
         <v>1263</v>
       </c>
       <c r="B215">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C215" t="s">
         <v>228</v>
@@ -7157,7 +7157,7 @@
         <v>1264</v>
       </c>
       <c r="B216">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C216" t="s">
         <v>229</v>
@@ -7168,7 +7168,7 @@
         <v>1265</v>
       </c>
       <c r="B217">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C217" t="s">
         <v>230</v>
@@ -7179,7 +7179,7 @@
         <v>1266</v>
       </c>
       <c r="B218">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C218" t="s">
         <v>204</v>
@@ -7190,7 +7190,7 @@
         <v>1267</v>
       </c>
       <c r="B219">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C219" t="s">
         <v>231</v>
@@ -7201,7 +7201,7 @@
         <v>1268</v>
       </c>
       <c r="B220">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C220" t="s">
         <v>232</v>
@@ -7212,7 +7212,7 @@
         <v>1269</v>
       </c>
       <c r="B221">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C221" t="s">
         <v>233</v>
@@ -7223,7 +7223,7 @@
         <v>1270</v>
       </c>
       <c r="B222">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C222" t="s">
         <v>234</v>
@@ -7234,7 +7234,7 @@
         <v>1294</v>
       </c>
       <c r="B223">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C223" t="s">
         <v>38</v>
@@ -7245,7 +7245,7 @@
         <v>1274</v>
       </c>
       <c r="B224">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C224" t="s">
         <v>87</v>
@@ -7256,7 +7256,7 @@
         <v>1289</v>
       </c>
       <c r="B225">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C225" t="s">
         <v>94</v>
@@ -7267,7 +7267,7 @@
         <v>1290</v>
       </c>
       <c r="B226">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C226" t="s">
         <v>136</v>
@@ -7278,7 +7278,7 @@
         <v>1291</v>
       </c>
       <c r="B227">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C227" t="s">
         <v>137</v>
@@ -7289,7 +7289,7 @@
         <v>1292</v>
       </c>
       <c r="B228">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C228" t="s">
         <v>156</v>
@@ -7300,7 +7300,7 @@
         <v>1293</v>
       </c>
       <c r="B229">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C229" t="s">
         <v>204</v>
@@ -7311,7 +7311,7 @@
         <v>1271</v>
       </c>
       <c r="B230">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C230" t="s">
         <v>235</v>
@@ -7322,7 +7322,7 @@
         <v>1272</v>
       </c>
       <c r="B231">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C231" t="s">
         <v>236</v>
@@ -7333,7 +7333,7 @@
         <v>1273</v>
       </c>
       <c r="B232">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C232" t="s">
         <v>237</v>
@@ -7344,7 +7344,7 @@
         <v>1275</v>
       </c>
       <c r="B233">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C233" t="s">
         <v>238</v>
@@ -7355,7 +7355,7 @@
         <v>1276</v>
       </c>
       <c r="B234">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C234" t="s">
         <v>239</v>
@@ -7366,7 +7366,7 @@
         <v>1277</v>
       </c>
       <c r="B235">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C235" t="s">
         <v>240</v>
@@ -7377,7 +7377,7 @@
         <v>1278</v>
       </c>
       <c r="B236">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C236" t="s">
         <v>241</v>
@@ -7388,7 +7388,7 @@
         <v>1279</v>
       </c>
       <c r="B237">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C237" t="s">
         <v>242</v>
@@ -7399,7 +7399,7 @@
         <v>1280</v>
       </c>
       <c r="B238">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C238" t="s">
         <v>243</v>
@@ -7410,7 +7410,7 @@
         <v>1281</v>
       </c>
       <c r="B239">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C239" t="s">
         <v>244</v>
@@ -7421,7 +7421,7 @@
         <v>1282</v>
       </c>
       <c r="B240">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C240" t="s">
         <v>245</v>
@@ -7432,7 +7432,7 @@
         <v>1283</v>
       </c>
       <c r="B241">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C241" t="s">
         <v>171</v>
@@ -7443,7 +7443,7 @@
         <v>1284</v>
       </c>
       <c r="B242">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C242" t="s">
         <v>246</v>
@@ -7454,7 +7454,7 @@
         <v>1285</v>
       </c>
       <c r="B243">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C243" t="s">
         <v>247</v>
@@ -7465,7 +7465,7 @@
         <v>1286</v>
       </c>
       <c r="B244">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C244" t="s">
         <v>248</v>
@@ -7476,7 +7476,7 @@
         <v>1287</v>
       </c>
       <c r="B245">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C245" t="s">
         <v>249</v>
@@ -7487,7 +7487,7 @@
         <v>1288</v>
       </c>
       <c r="B246">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C246" t="s">
         <v>250</v>
@@ -7498,7 +7498,7 @@
         <v>1295</v>
       </c>
       <c r="B247">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C247" t="s">
         <v>251</v>
@@ -7509,7 +7509,7 @@
         <v>1296</v>
       </c>
       <c r="B248">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C248" t="s">
         <v>252</v>
@@ -7520,7 +7520,7 @@
         <v>1297</v>
       </c>
       <c r="B249">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C249" t="s">
         <v>253</v>
@@ -7531,7 +7531,7 @@
         <v>1298</v>
       </c>
       <c r="B250">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C250" t="s">
         <v>254</v>
@@ -7542,7 +7542,7 @@
         <v>1299</v>
       </c>
       <c r="B251">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C251" t="s">
         <v>255</v>
@@ -7553,7 +7553,7 @@
         <v>1300</v>
       </c>
       <c r="B252">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C252" t="s">
         <v>256</v>
@@ -7564,7 +7564,7 @@
         <v>1301</v>
       </c>
       <c r="B253">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C253" t="s">
         <v>257</v>
@@ -7575,7 +7575,7 @@
         <v>1302</v>
       </c>
       <c r="B254">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C254" t="s">
         <v>258</v>
@@ -7586,7 +7586,7 @@
         <v>1303</v>
       </c>
       <c r="B255">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C255" t="s">
         <v>259</v>
@@ -7597,7 +7597,7 @@
         <v>1304</v>
       </c>
       <c r="B256">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C256" t="s">
         <v>260</v>
@@ -7608,7 +7608,7 @@
         <v>1305</v>
       </c>
       <c r="B257">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C257" t="s">
         <v>261</v>
@@ -7619,7 +7619,7 @@
         <v>1306</v>
       </c>
       <c r="B258">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C258" t="s">
         <v>262</v>
@@ -7630,7 +7630,7 @@
         <v>1307</v>
       </c>
       <c r="B259">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C259" t="s">
         <v>263</v>
@@ -7641,7 +7641,7 @@
         <v>1308</v>
       </c>
       <c r="B260">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C260" t="s">
         <v>264</v>
@@ -7652,7 +7652,7 @@
         <v>1309</v>
       </c>
       <c r="B261">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C261" t="s">
         <v>265</v>
@@ -7663,7 +7663,7 @@
         <v>1310</v>
       </c>
       <c r="B262">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C262" t="s">
         <v>266</v>
@@ -7674,7 +7674,7 @@
         <v>1311</v>
       </c>
       <c r="B263">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C263" t="s">
         <v>267</v>
@@ -7685,7 +7685,7 @@
         <v>1312</v>
       </c>
       <c r="B264">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C264" t="s">
         <v>269</v>
@@ -7696,7 +7696,7 @@
         <v>1313</v>
       </c>
       <c r="B265">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C265" t="s">
         <v>270</v>
@@ -7707,7 +7707,7 @@
         <v>1314</v>
       </c>
       <c r="B266">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C266" t="s">
         <v>271</v>
@@ -7718,7 +7718,7 @@
         <v>1315</v>
       </c>
       <c r="B267">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C267" t="s">
         <v>272</v>
@@ -7729,7 +7729,7 @@
         <v>1316</v>
       </c>
       <c r="B268">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C268" t="s">
         <v>273</v>
@@ -7740,7 +7740,7 @@
         <v>1317</v>
       </c>
       <c r="B269">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C269" t="s">
         <v>274</v>
@@ -7751,7 +7751,7 @@
         <v>1318</v>
       </c>
       <c r="B270">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C270" t="s">
         <v>275</v>
@@ -7762,7 +7762,7 @@
         <v>1319</v>
       </c>
       <c r="B271">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C271" t="s">
         <v>276</v>
@@ -7773,7 +7773,7 @@
         <v>1320</v>
       </c>
       <c r="B272">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C272" t="s">
         <v>279</v>
@@ -7784,7 +7784,7 @@
         <v>1321</v>
       </c>
       <c r="B273">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C273" t="s">
         <v>280</v>
@@ -7795,7 +7795,7 @@
         <v>1322</v>
       </c>
       <c r="B274">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C274" t="s">
         <v>281</v>
@@ -7806,7 +7806,7 @@
         <v>1323</v>
       </c>
       <c r="B275">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C275" t="s">
         <v>282</v>
@@ -7817,7 +7817,7 @@
         <v>1324</v>
       </c>
       <c r="B276">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C276" t="s">
         <v>283</v>
@@ -7828,7 +7828,7 @@
         <v>1325</v>
       </c>
       <c r="B277">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C277" t="s">
         <v>284</v>
@@ -7839,7 +7839,7 @@
         <v>1326</v>
       </c>
       <c r="B278">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C278" t="s">
         <v>285</v>
@@ -7850,7 +7850,7 @@
         <v>1327</v>
       </c>
       <c r="B279">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C279" t="s">
         <v>286</v>
@@ -7861,7 +7861,7 @@
         <v>1328</v>
       </c>
       <c r="B280">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C280" t="s">
         <v>287</v>
@@ -7872,7 +7872,7 @@
         <v>1329</v>
       </c>
       <c r="B281">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C281" t="s">
         <v>288</v>
@@ -7883,7 +7883,7 @@
         <v>1330</v>
       </c>
       <c r="B282">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C282" t="s">
         <v>289</v>
@@ -7894,7 +7894,7 @@
         <v>1331</v>
       </c>
       <c r="B283">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C283" t="s">
         <v>290</v>
@@ -7905,7 +7905,7 @@
         <v>1332</v>
       </c>
       <c r="B284">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C284" t="s">
         <v>291</v>
@@ -7916,7 +7916,7 @@
         <v>1333</v>
       </c>
       <c r="B285">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C285" t="s">
         <v>292</v>
@@ -7927,7 +7927,7 @@
         <v>1334</v>
       </c>
       <c r="B286">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C286" t="s">
         <v>294</v>
@@ -7938,7 +7938,7 @@
         <v>1335</v>
       </c>
       <c r="B287">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C287" t="s">
         <v>295</v>
@@ -7949,7 +7949,7 @@
         <v>1336</v>
       </c>
       <c r="B288">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C288" t="s">
         <v>296</v>
@@ -7960,7 +7960,7 @@
         <v>1337</v>
       </c>
       <c r="B289">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C289" t="s">
         <v>297</v>
@@ -7971,7 +7971,7 @@
         <v>1338</v>
       </c>
       <c r="B290">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C290" t="s">
         <v>298</v>
@@ -7982,7 +7982,7 @@
         <v>1339</v>
       </c>
       <c r="B291">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C291" t="s">
         <v>299</v>
@@ -7993,7 +7993,7 @@
         <v>1340</v>
       </c>
       <c r="B292">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C292" t="s">
         <v>300</v>
@@ -8004,7 +8004,7 @@
         <v>1341</v>
       </c>
       <c r="B293">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C293" t="s">
         <v>301</v>
@@ -8015,7 +8015,7 @@
         <v>1342</v>
       </c>
       <c r="B294">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C294" t="s">
         <v>302</v>
@@ -8026,7 +8026,7 @@
         <v>1343</v>
       </c>
       <c r="B295">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C295" t="s">
         <v>303</v>
@@ -8037,7 +8037,7 @@
         <v>1344</v>
       </c>
       <c r="B296">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C296" t="s">
         <v>304</v>
@@ -8048,7 +8048,7 @@
         <v>1345</v>
       </c>
       <c r="B297">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C297" t="s">
         <v>305</v>
@@ -8059,7 +8059,7 @@
         <v>1349</v>
       </c>
       <c r="B298">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C298" t="s">
         <v>268</v>
@@ -8070,7 +8070,7 @@
         <v>1346</v>
       </c>
       <c r="B299">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C299" t="s">
         <v>306</v>
@@ -8081,7 +8081,7 @@
         <v>1347</v>
       </c>
       <c r="B300">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C300" t="s">
         <v>307</v>
@@ -8092,7 +8092,7 @@
         <v>1348</v>
       </c>
       <c r="B301">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C301" t="s">
         <v>308</v>
@@ -8103,7 +8103,7 @@
         <v>1350</v>
       </c>
       <c r="B302">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C302" t="s">
         <v>310</v>
@@ -8114,7 +8114,7 @@
         <v>1351</v>
       </c>
       <c r="B303">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C303" t="s">
         <v>311</v>
@@ -8125,7 +8125,7 @@
         <v>1352</v>
       </c>
       <c r="B304">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C304" t="s">
         <v>312</v>
@@ -8136,7 +8136,7 @@
         <v>1353</v>
       </c>
       <c r="B305">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C305" t="s">
         <v>313</v>
@@ -8147,7 +8147,7 @@
         <v>1354</v>
       </c>
       <c r="B306">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C306" t="s">
         <v>314</v>
@@ -8158,7 +8158,7 @@
         <v>1355</v>
       </c>
       <c r="B307">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C307" t="s">
         <v>315</v>
@@ -8169,7 +8169,7 @@
         <v>1356</v>
       </c>
       <c r="B308">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C308" t="s">
         <v>316</v>
@@ -8180,7 +8180,7 @@
         <v>1357</v>
       </c>
       <c r="B309">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C309" t="s">
         <v>318</v>
@@ -8191,7 +8191,7 @@
         <v>1358</v>
       </c>
       <c r="B310">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C310" t="s">
         <v>319</v>
@@ -8202,7 +8202,7 @@
         <v>1359</v>
       </c>
       <c r="B311">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C311" t="s">
         <v>320</v>
@@ -8213,7 +8213,7 @@
         <v>1360</v>
       </c>
       <c r="B312">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C312" t="s">
         <v>321</v>
@@ -8224,7 +8224,7 @@
         <v>1361</v>
       </c>
       <c r="B313">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C313" t="s">
         <v>322</v>
@@ -8235,7 +8235,7 @@
         <v>1362</v>
       </c>
       <c r="B314">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C314" t="s">
         <v>323</v>
@@ -8246,7 +8246,7 @@
         <v>1363</v>
       </c>
       <c r="B315">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C315" t="s">
         <v>324</v>
@@ -8257,7 +8257,7 @@
         <v>1364</v>
       </c>
       <c r="B316">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C316" t="s">
         <v>325</v>
@@ -8268,7 +8268,7 @@
         <v>1365</v>
       </c>
       <c r="B317">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C317" t="s">
         <v>326</v>
@@ -8279,7 +8279,7 @@
         <v>1366</v>
       </c>
       <c r="B318">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C318" t="s">
         <v>328</v>
@@ -8290,7 +8290,7 @@
         <v>1375</v>
       </c>
       <c r="B319">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C319" t="s">
         <v>3</v>
@@ -8301,7 +8301,7 @@
         <v>1376</v>
       </c>
       <c r="B320">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C320" t="s">
         <v>4</v>
@@ -8312,7 +8312,7 @@
         <v>1377</v>
       </c>
       <c r="B321">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C321" t="s">
         <v>6</v>
@@ -8323,7 +8323,7 @@
         <v>1378</v>
       </c>
       <c r="B322">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C322" t="s">
         <v>8</v>
@@ -8334,7 +8334,7 @@
         <v>1379</v>
       </c>
       <c r="B323">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C323" t="s">
         <v>11</v>
@@ -8345,7 +8345,7 @@
         <v>1380</v>
       </c>
       <c r="B324">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C324" t="s">
         <v>12</v>
@@ -8356,7 +8356,7 @@
         <v>1381</v>
       </c>
       <c r="B325">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C325" t="s">
         <v>277</v>
@@ -8367,7 +8367,7 @@
         <v>1382</v>
       </c>
       <c r="B326">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C326" t="s">
         <v>278</v>
@@ -8378,7 +8378,7 @@
         <v>1402</v>
       </c>
       <c r="B327">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C327" t="s">
         <v>327</v>
@@ -8389,7 +8389,7 @@
         <v>1383</v>
       </c>
       <c r="B328">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C328" t="s">
         <v>330</v>
@@ -8400,7 +8400,7 @@
         <v>1384</v>
       </c>
       <c r="B329">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C329" t="s">
         <v>331</v>
@@ -8411,7 +8411,7 @@
         <v>1385</v>
       </c>
       <c r="B330">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C330" t="s">
         <v>332</v>
@@ -8422,7 +8422,7 @@
         <v>1386</v>
       </c>
       <c r="B331">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C331" t="s">
         <v>333</v>
@@ -8433,7 +8433,7 @@
         <v>1400</v>
       </c>
       <c r="B332">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C332" t="s">
         <v>334</v>
@@ -8444,7 +8444,7 @@
         <v>1401</v>
       </c>
       <c r="B333">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C333" t="s">
         <v>335</v>
@@ -8455,7 +8455,7 @@
         <v>1387</v>
       </c>
       <c r="B334">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C334" t="s">
         <v>336</v>
@@ -8466,7 +8466,7 @@
         <v>1388</v>
       </c>
       <c r="B335">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C335" t="s">
         <v>337</v>
@@ -8477,7 +8477,7 @@
         <v>1389</v>
       </c>
       <c r="B336">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C336" t="s">
         <v>338</v>
@@ -8488,7 +8488,7 @@
         <v>1390</v>
       </c>
       <c r="B337">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C337" t="s">
         <v>339</v>
@@ -8499,7 +8499,7 @@
         <v>1391</v>
       </c>
       <c r="B338">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C338" t="s">
         <v>340</v>
@@ -8510,7 +8510,7 @@
         <v>1392</v>
       </c>
       <c r="B339">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C339" t="s">
         <v>341</v>
@@ -8521,7 +8521,7 @@
         <v>1393</v>
       </c>
       <c r="B340">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C340" t="s">
         <v>342</v>
@@ -8532,7 +8532,7 @@
         <v>1394</v>
       </c>
       <c r="B341">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C341" t="s">
         <v>343</v>
@@ -8543,7 +8543,7 @@
         <v>1395</v>
       </c>
       <c r="B342">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C342" t="s">
         <v>344</v>
@@ -8554,7 +8554,7 @@
         <v>1396</v>
       </c>
       <c r="B343">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C343" t="s">
         <v>345</v>
@@ -8565,7 +8565,7 @@
         <v>1397</v>
       </c>
       <c r="B344">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C344" t="s">
         <v>346</v>
@@ -8576,7 +8576,7 @@
         <v>1398</v>
       </c>
       <c r="B345">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C345" t="s">
         <v>347</v>
@@ -8587,7 +8587,7 @@
         <v>1399</v>
       </c>
       <c r="B346">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C346" t="s">
         <v>348</v>
@@ -8598,7 +8598,7 @@
         <v>1403</v>
       </c>
       <c r="B347">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C347" t="s">
         <v>349</v>
@@ -8609,7 +8609,7 @@
         <v>1404</v>
       </c>
       <c r="B348">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C348" t="s">
         <v>350</v>
@@ -8620,7 +8620,7 @@
         <v>1405</v>
       </c>
       <c r="B349">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C349" t="s">
         <v>351</v>
@@ -8631,7 +8631,7 @@
         <v>1406</v>
       </c>
       <c r="B350">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C350" t="s">
         <v>352</v>
@@ -8642,7 +8642,7 @@
         <v>1407</v>
       </c>
       <c r="B351">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C351" t="s">
         <v>353</v>
@@ -8653,7 +8653,7 @@
         <v>1408</v>
       </c>
       <c r="B352">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C352" t="s">
         <v>354</v>
@@ -8664,7 +8664,7 @@
         <v>1409</v>
       </c>
       <c r="B353">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C353" t="s">
         <v>355</v>
@@ -8675,7 +8675,7 @@
         <v>1410</v>
       </c>
       <c r="B354">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C354" t="s">
         <v>356</v>
@@ -8686,7 +8686,7 @@
         <v>1411</v>
       </c>
       <c r="B355">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C355" t="s">
         <v>357</v>
@@ -8697,7 +8697,7 @@
         <v>1412</v>
       </c>
       <c r="B356">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C356" t="s">
         <v>358</v>
@@ -8708,7 +8708,7 @@
         <v>1413</v>
       </c>
       <c r="B357">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C357" t="s">
         <v>359</v>
@@ -8719,7 +8719,7 @@
         <v>1414</v>
       </c>
       <c r="B358">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C358" t="s">
         <v>361</v>
@@ -8730,7 +8730,7 @@
         <v>1415</v>
       </c>
       <c r="B359">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C359" t="s">
         <v>362</v>
@@ -8741,7 +8741,7 @@
         <v>1416</v>
       </c>
       <c r="B360">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C360" t="s">
         <v>363</v>
@@ -8752,7 +8752,7 @@
         <v>1417</v>
       </c>
       <c r="B361">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C361" t="s">
         <v>364</v>
@@ -8763,7 +8763,7 @@
         <v>1418</v>
       </c>
       <c r="B362">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C362" t="s">
         <v>365</v>
@@ -8774,7 +8774,7 @@
         <v>1419</v>
       </c>
       <c r="B363">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C363" t="s">
         <v>366</v>
@@ -8785,7 +8785,7 @@
         <v>1420</v>
       </c>
       <c r="B364">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C364" t="s">
         <v>367</v>
@@ -8796,7 +8796,7 @@
         <v>1421</v>
       </c>
       <c r="B365">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C365" t="s">
         <v>368</v>
@@ -8807,7 +8807,7 @@
         <v>1422</v>
       </c>
       <c r="B366">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C366" t="s">
         <v>369</v>
@@ -8818,7 +8818,7 @@
         <v>1423</v>
       </c>
       <c r="B367">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C367" t="s">
         <v>370</v>
@@ -8829,7 +8829,7 @@
         <v>1424</v>
       </c>
       <c r="B368">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C368" t="s">
         <v>371</v>
@@ -8840,7 +8840,7 @@
         <v>1425</v>
       </c>
       <c r="B369">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C369" t="s">
         <v>372</v>
@@ -8851,7 +8851,7 @@
         <v>1426</v>
       </c>
       <c r="B370">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C370" t="s">
         <v>373</v>
@@ -8862,7 +8862,7 @@
         <v>1427</v>
       </c>
       <c r="B371">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C371" t="s">
         <v>374</v>
@@ -8873,7 +8873,7 @@
         <v>1428</v>
       </c>
       <c r="B372">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C372" t="s">
         <v>375</v>
@@ -8884,7 +8884,7 @@
         <v>1429</v>
       </c>
       <c r="B373">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C373" t="s">
         <v>376</v>
@@ -8895,7 +8895,7 @@
         <v>1430</v>
       </c>
       <c r="B374">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C374" t="s">
         <v>377</v>
@@ -8906,7 +8906,7 @@
         <v>1431</v>
       </c>
       <c r="B375">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C375" t="s">
         <v>378</v>
@@ -8917,7 +8917,7 @@
         <v>1432</v>
       </c>
       <c r="B376">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C376" t="s">
         <v>380</v>
@@ -8928,7 +8928,7 @@
         <v>1433</v>
       </c>
       <c r="B377">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C377" t="s">
         <v>381</v>
@@ -8939,7 +8939,7 @@
         <v>1434</v>
       </c>
       <c r="B378">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C378" t="s">
         <v>382</v>
@@ -8950,7 +8950,7 @@
         <v>1435</v>
       </c>
       <c r="B379">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C379" t="s">
         <v>383</v>
@@ -8961,7 +8961,7 @@
         <v>1436</v>
       </c>
       <c r="B380">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C380" t="s">
         <v>384</v>
@@ -8972,7 +8972,7 @@
         <v>1437</v>
       </c>
       <c r="B381">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C381" t="s">
         <v>385</v>
@@ -8983,7 +8983,7 @@
         <v>1449</v>
       </c>
       <c r="B382">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C382" t="s">
         <v>39</v>
@@ -8994,7 +8994,7 @@
         <v>1450</v>
       </c>
       <c r="B383">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C383" t="s">
         <v>40</v>
@@ -9005,7 +9005,7 @@
         <v>1451</v>
       </c>
       <c r="B384">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C384" t="s">
         <v>293</v>
@@ -9016,7 +9016,7 @@
         <v>1445</v>
       </c>
       <c r="B385">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C385" t="s">
         <v>329</v>
@@ -9027,7 +9027,7 @@
         <v>1446</v>
       </c>
       <c r="B386">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C386" t="s">
         <v>360</v>
@@ -9038,7 +9038,7 @@
         <v>1447</v>
       </c>
       <c r="B387">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C387" t="s">
         <v>379</v>
@@ -9049,7 +9049,7 @@
         <v>1438</v>
       </c>
       <c r="B388">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C388" t="s">
         <v>386</v>
@@ -9060,7 +9060,7 @@
         <v>1439</v>
       </c>
       <c r="B389">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C389" t="s">
         <v>387</v>
@@ -9071,7 +9071,7 @@
         <v>1440</v>
       </c>
       <c r="B390">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C390" t="s">
         <v>388</v>
@@ -9082,7 +9082,7 @@
         <v>1441</v>
       </c>
       <c r="B391">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C391" t="s">
         <v>389</v>
@@ -9093,7 +9093,7 @@
         <v>1442</v>
       </c>
       <c r="B392">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C392" t="s">
         <v>390</v>
@@ -9104,7 +9104,7 @@
         <v>1443</v>
       </c>
       <c r="B393">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C393" t="s">
         <v>391</v>
@@ -9115,7 +9115,7 @@
         <v>1444</v>
       </c>
       <c r="B394">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C394" t="s">
         <v>392</v>
@@ -9126,7 +9126,7 @@
         <v>1448</v>
       </c>
       <c r="B395">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C395" t="s">
         <v>393</v>
@@ -9137,7 +9137,7 @@
         <v>1452</v>
       </c>
       <c r="B396">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C396" t="s">
         <v>394</v>
@@ -9148,7 +9148,7 @@
         <v>1453</v>
       </c>
       <c r="B397">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C397" t="s">
         <v>395</v>
@@ -9159,7 +9159,7 @@
         <v>1454</v>
       </c>
       <c r="B398">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C398" t="s">
         <v>396</v>
@@ -9170,7 +9170,7 @@
         <v>1455</v>
       </c>
       <c r="B399">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C399" t="s">
         <v>397</v>
@@ -9181,7 +9181,7 @@
         <v>1456</v>
       </c>
       <c r="B400">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C400" t="s">
         <v>398</v>
@@ -9192,7 +9192,7 @@
         <v>1457</v>
       </c>
       <c r="B401">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C401" t="s">
         <v>399</v>
@@ -9203,7 +9203,7 @@
         <v>1458</v>
       </c>
       <c r="B402">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C402" t="s">
         <v>400</v>
@@ -9214,7 +9214,7 @@
         <v>1459</v>
       </c>
       <c r="B403">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C403" t="s">
         <v>401</v>
@@ -9225,7 +9225,7 @@
         <v>1460</v>
       </c>
       <c r="B404">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C404" t="s">
         <v>402</v>
@@ -9236,7 +9236,7 @@
         <v>1470</v>
       </c>
       <c r="B405">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C405" t="s">
         <v>309</v>
@@ -9247,7 +9247,7 @@
         <v>1461</v>
       </c>
       <c r="B406">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C406" t="s">
         <v>403</v>
@@ -9258,7 +9258,7 @@
         <v>1462</v>
       </c>
       <c r="B407">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C407" t="s">
         <v>404</v>
@@ -9269,7 +9269,7 @@
         <v>1463</v>
       </c>
       <c r="B408">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C408" t="s">
         <v>405</v>
@@ -9280,7 +9280,7 @@
         <v>1464</v>
       </c>
       <c r="B409">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C409" t="s">
         <v>406</v>
@@ -9291,7 +9291,7 @@
         <v>1465</v>
       </c>
       <c r="B410">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C410" t="s">
         <v>407</v>
@@ -9302,7 +9302,7 @@
         <v>1466</v>
       </c>
       <c r="B411">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C411" t="s">
         <v>408</v>
@@ -9313,7 +9313,7 @@
         <v>1467</v>
       </c>
       <c r="B412">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C412" t="s">
         <v>409</v>
@@ -9324,7 +9324,7 @@
         <v>1468</v>
       </c>
       <c r="B413">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C413" t="s">
         <v>410</v>
@@ -9335,7 +9335,7 @@
         <v>1469</v>
       </c>
       <c r="B414">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C414" t="s">
         <v>411</v>
@@ -9346,7 +9346,7 @@
         <v>1471</v>
       </c>
       <c r="B415">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C415" t="s">
         <v>412</v>
@@ -9357,7 +9357,7 @@
         <v>1472</v>
       </c>
       <c r="B416">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C416" t="s">
         <v>413</v>
@@ -9368,7 +9368,7 @@
         <v>1473</v>
       </c>
       <c r="B417">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C417" t="s">
         <v>414</v>
@@ -9379,7 +9379,7 @@
         <v>1474</v>
       </c>
       <c r="B418">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C418" t="s">
         <v>415</v>
@@ -9390,7 +9390,7 @@
         <v>1475</v>
       </c>
       <c r="B419">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C419" t="s">
         <v>416</v>
@@ -9401,7 +9401,7 @@
         <v>1476</v>
       </c>
       <c r="B420">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C420" t="s">
         <v>417</v>
@@ -9412,7 +9412,7 @@
         <v>1477</v>
       </c>
       <c r="B421">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C421" t="s">
         <v>418</v>
@@ -9423,7 +9423,7 @@
         <v>1478</v>
       </c>
       <c r="B422">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C422" t="s">
         <v>419</v>
@@ -9434,7 +9434,7 @@
         <v>1479</v>
       </c>
       <c r="B423">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C423" t="s">
         <v>420</v>
@@ -9445,7 +9445,7 @@
         <v>1480</v>
       </c>
       <c r="B424">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C424" t="s">
         <v>421</v>
@@ -9456,7 +9456,7 @@
         <v>1481</v>
       </c>
       <c r="B425">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C425" t="s">
         <v>422</v>
@@ -9467,7 +9467,7 @@
         <v>1482</v>
       </c>
       <c r="B426">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C426" t="s">
         <v>423</v>
@@ -9478,7 +9478,7 @@
         <v>1483</v>
       </c>
       <c r="B427">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C427" t="s">
         <v>424</v>
@@ -9489,7 +9489,7 @@
         <v>1484</v>
       </c>
       <c r="B428">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C428" t="s">
         <v>425</v>
@@ -9500,7 +9500,7 @@
         <v>1485</v>
       </c>
       <c r="B429">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C429" t="s">
         <v>426</v>
@@ -9511,7 +9511,7 @@
         <v>1486</v>
       </c>
       <c r="B430">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C430" t="s">
         <v>427</v>
@@ -9522,7 +9522,7 @@
         <v>1487</v>
       </c>
       <c r="B431">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C431" t="s">
         <v>428</v>
@@ -9533,7 +9533,7 @@
         <v>1488</v>
       </c>
       <c r="B432">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C432" t="s">
         <v>429</v>
@@ -9544,7 +9544,7 @@
         <v>1489</v>
       </c>
       <c r="B433">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C433" t="s">
         <v>430</v>
@@ -9555,7 +9555,7 @@
         <v>1490</v>
       </c>
       <c r="B434">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C434" t="s">
         <v>431</v>
@@ -9566,7 +9566,7 @@
         <v>1491</v>
       </c>
       <c r="B435">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C435" t="s">
         <v>432</v>
@@ -9577,7 +9577,7 @@
         <v>1492</v>
       </c>
       <c r="B436">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C436" t="s">
         <v>433</v>
@@ -9588,7 +9588,7 @@
         <v>1493</v>
       </c>
       <c r="B437">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C437" t="s">
         <v>434</v>
@@ -9599,7 +9599,7 @@
         <v>1494</v>
       </c>
       <c r="B438">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C438" t="s">
         <v>435</v>
@@ -9610,7 +9610,7 @@
         <v>1495</v>
       </c>
       <c r="B439">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C439" t="s">
         <v>436</v>
@@ -9621,7 +9621,7 @@
         <v>1496</v>
       </c>
       <c r="B440">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C440" t="s">
         <v>437</v>
@@ -9632,7 +9632,7 @@
         <v>1497</v>
       </c>
       <c r="B441">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C441" t="s">
         <v>438</v>
@@ -9643,7 +9643,7 @@
         <v>1498</v>
       </c>
       <c r="B442">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C442" t="s">
         <v>439</v>
@@ -9654,7 +9654,7 @@
         <v>1499</v>
       </c>
       <c r="B443">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C443" t="s">
         <v>440</v>
@@ -9665,7 +9665,7 @@
         <v>1500</v>
       </c>
       <c r="B444">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C444" t="s">
         <v>441</v>
@@ -9676,7 +9676,7 @@
         <v>1501</v>
       </c>
       <c r="B445">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C445" t="s">
         <v>442</v>
@@ -9687,7 +9687,7 @@
         <v>1502</v>
       </c>
       <c r="B446">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C446" t="s">
         <v>443</v>
@@ -9698,7 +9698,7 @@
         <v>1503</v>
       </c>
       <c r="B447">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C447" t="s">
         <v>444</v>
@@ -9709,7 +9709,7 @@
         <v>1504</v>
       </c>
       <c r="B448">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C448" t="s">
         <v>445</v>
@@ -9720,7 +9720,7 @@
         <v>1505</v>
       </c>
       <c r="B449">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C449" t="s">
         <v>446</v>
@@ -9731,7 +9731,7 @@
         <v>1506</v>
       </c>
       <c r="B450">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C450" t="s">
         <v>447</v>
@@ -9742,7 +9742,7 @@
         <v>1507</v>
       </c>
       <c r="B451">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C451" t="s">
         <v>448</v>
@@ -9753,7 +9753,7 @@
         <v>1508</v>
       </c>
       <c r="B452">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C452" t="s">
         <v>449</v>
@@ -9764,7 +9764,7 @@
         <v>1509</v>
       </c>
       <c r="B453">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C453" t="s">
         <v>450</v>
@@ -9775,7 +9775,7 @@
         <v>1510</v>
       </c>
       <c r="B454">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C454" t="s">
         <v>451</v>
@@ -9786,7 +9786,7 @@
         <v>1511</v>
       </c>
       <c r="B455">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C455" t="s">
         <v>452</v>
@@ -9797,7 +9797,7 @@
         <v>1512</v>
       </c>
       <c r="B456">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C456" t="s">
         <v>453</v>
@@ -9808,7 +9808,7 @@
         <v>1513</v>
       </c>
       <c r="B457">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C457" t="s">
         <v>454</v>
@@ -9819,7 +9819,7 @@
         <v>1514</v>
       </c>
       <c r="B458">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C458" t="s">
         <v>455</v>
@@ -9830,7 +9830,7 @@
         <v>1515</v>
       </c>
       <c r="B459">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C459" t="s">
         <v>456</v>
@@ -9841,7 +9841,7 @@
         <v>1516</v>
       </c>
       <c r="B460">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C460" t="s">
         <v>457</v>
@@ -9852,7 +9852,7 @@
         <v>1517</v>
       </c>
       <c r="B461">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C461" t="s">
         <v>458</v>
@@ -9863,7 +9863,7 @@
         <v>1518</v>
       </c>
       <c r="B462">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C462" t="s">
         <v>459</v>
@@ -9874,7 +9874,7 @@
         <v>1519</v>
       </c>
       <c r="B463">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C463" t="s">
         <v>460</v>
@@ -9885,7 +9885,7 @@
         <v>1520</v>
       </c>
       <c r="B464">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C464" t="s">
         <v>461</v>
@@ -9896,7 +9896,7 @@
         <v>1521</v>
       </c>
       <c r="B465">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C465" t="s">
         <v>462</v>
@@ -9907,7 +9907,7 @@
         <v>1522</v>
       </c>
       <c r="B466">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C466" t="s">
         <v>463</v>
@@ -9918,7 +9918,7 @@
         <v>1523</v>
       </c>
       <c r="B467">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C467" t="s">
         <v>464</v>
@@ -9929,7 +9929,7 @@
         <v>1524</v>
       </c>
       <c r="B468">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C468" t="s">
         <v>465</v>
@@ -9940,7 +9940,7 @@
         <v>1525</v>
       </c>
       <c r="B469">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C469" t="s">
         <v>466</v>
@@ -9951,7 +9951,7 @@
         <v>1526</v>
       </c>
       <c r="B470">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C470" t="s">
         <v>467</v>
@@ -9962,7 +9962,7 @@
         <v>1527</v>
       </c>
       <c r="B471">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C471" t="s">
         <v>468</v>
@@ -9973,7 +9973,7 @@
         <v>1528</v>
       </c>
       <c r="B472">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C472" t="s">
         <v>469</v>
@@ -9984,7 +9984,7 @@
         <v>1529</v>
       </c>
       <c r="B473">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C473" t="s">
         <v>470</v>
@@ -9995,7 +9995,7 @@
         <v>1530</v>
       </c>
       <c r="B474">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C474" t="s">
         <v>471</v>
@@ -10006,7 +10006,7 @@
         <v>1531</v>
       </c>
       <c r="B475">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C475" t="s">
         <v>472</v>
@@ -10017,7 +10017,7 @@
         <v>1532</v>
       </c>
       <c r="B476">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C476" t="s">
         <v>473</v>
@@ -10028,7 +10028,7 @@
         <v>1533</v>
       </c>
       <c r="B477">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C477" t="s">
         <v>474</v>
@@ -10039,7 +10039,7 @@
         <v>1534</v>
       </c>
       <c r="B478">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C478" t="s">
         <v>476</v>
@@ -10050,7 +10050,7 @@
         <v>1535</v>
       </c>
       <c r="B479">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C479" t="s">
         <v>477</v>
@@ -10061,7 +10061,7 @@
         <v>1536</v>
       </c>
       <c r="B480">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C480" t="s">
         <v>478</v>
@@ -10072,7 +10072,7 @@
         <v>1537</v>
       </c>
       <c r="B481">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C481" t="s">
         <v>479</v>
@@ -10083,7 +10083,7 @@
         <v>1538</v>
       </c>
       <c r="B482">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C482" t="s">
         <v>480</v>
@@ -10094,7 +10094,7 @@
         <v>1539</v>
       </c>
       <c r="B483">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C483" t="s">
         <v>481</v>
@@ -10105,7 +10105,7 @@
         <v>1540</v>
       </c>
       <c r="B484">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C484" t="s">
         <v>482</v>
@@ -10116,7 +10116,7 @@
         <v>1541</v>
       </c>
       <c r="B485">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C485" t="s">
         <v>483</v>
@@ -10127,7 +10127,7 @@
         <v>1542</v>
       </c>
       <c r="B486">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C486" t="s">
         <v>484</v>
@@ -10138,7 +10138,7 @@
         <v>1543</v>
       </c>
       <c r="B487">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C487" t="s">
         <v>485</v>
@@ -10149,7 +10149,7 @@
         <v>1544</v>
       </c>
       <c r="B488">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C488" t="s">
         <v>486</v>
@@ -10160,7 +10160,7 @@
         <v>1545</v>
       </c>
       <c r="B489">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C489" t="s">
         <v>487</v>
@@ -10171,7 +10171,7 @@
         <v>1546</v>
       </c>
       <c r="B490">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C490" t="s">
         <v>488</v>
@@ -10182,7 +10182,7 @@
         <v>1547</v>
       </c>
       <c r="B491">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C491" t="s">
         <v>489</v>
@@ -10193,7 +10193,7 @@
         <v>1548</v>
       </c>
       <c r="B492">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C492" t="s">
         <v>490</v>
@@ -10204,7 +10204,7 @@
         <v>1549</v>
       </c>
       <c r="B493">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C493" t="s">
         <v>491</v>
@@ -10215,7 +10215,7 @@
         <v>1550</v>
       </c>
       <c r="B494">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C494" t="s">
         <v>492</v>
@@ -10226,7 +10226,7 @@
         <v>1551</v>
       </c>
       <c r="B495">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C495" t="s">
         <v>493</v>
@@ -10237,7 +10237,7 @@
         <v>1552</v>
       </c>
       <c r="B496">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C496" t="s">
         <v>317</v>
@@ -10248,7 +10248,7 @@
         <v>1553</v>
       </c>
       <c r="B497">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C497" t="s">
         <v>475</v>
@@ -10259,7 +10259,7 @@
         <v>1554</v>
       </c>
       <c r="B498">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C498" t="s">
         <v>494</v>
@@ -10270,7 +10270,7 @@
         <v>1555</v>
       </c>
       <c r="B499">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C499" t="s">
         <v>495</v>
@@ -10281,7 +10281,7 @@
         <v>1556</v>
       </c>
       <c r="B500">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C500" t="s">
         <v>496</v>
@@ -10292,7 +10292,7 @@
         <v>1557</v>
       </c>
       <c r="B501">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C501" t="s">
         <v>497</v>
@@ -10303,7 +10303,7 @@
         <v>1558</v>
       </c>
       <c r="B502">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C502" t="s">
         <v>498</v>
@@ -10314,7 +10314,7 @@
         <v>1559</v>
       </c>
       <c r="B503">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C503" t="s">
         <v>499</v>
@@ -10325,7 +10325,7 @@
         <v>1560</v>
       </c>
       <c r="B504">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C504" t="s">
         <v>500</v>
@@ -10336,7 +10336,7 @@
         <v>1561</v>
       </c>
       <c r="B505">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C505" t="s">
         <v>501</v>
@@ -10347,7 +10347,7 @@
         <v>1562</v>
       </c>
       <c r="B506">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C506" t="s">
         <v>502</v>
@@ -10358,7 +10358,7 @@
         <v>1563</v>
       </c>
       <c r="B507">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C507" t="s">
         <v>503</v>
@@ -10369,7 +10369,7 @@
         <v>1564</v>
       </c>
       <c r="B508">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C508" t="s">
         <v>504</v>
@@ -10380,7 +10380,7 @@
         <v>1565</v>
       </c>
       <c r="B509">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C509" t="s">
         <v>505</v>
@@ -10391,7 +10391,7 @@
         <v>1566</v>
       </c>
       <c r="B510">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C510" t="s">
         <v>506</v>
@@ -10402,7 +10402,7 @@
         <v>1567</v>
       </c>
       <c r="B511">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C511" t="s">
         <v>507</v>
@@ -10413,7 +10413,7 @@
         <v>1568</v>
       </c>
       <c r="B512">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C512" t="s">
         <v>508</v>
@@ -10424,7 +10424,7 @@
         <v>1569</v>
       </c>
       <c r="B513">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C513" t="s">
         <v>509</v>
@@ -10435,7 +10435,7 @@
         <v>1570</v>
       </c>
       <c r="B514">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C514" t="s">
         <v>510</v>
@@ -10446,7 +10446,7 @@
         <v>1571</v>
       </c>
       <c r="B515">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C515" t="s">
         <v>511</v>
@@ -10457,7 +10457,7 @@
         <v>1572</v>
       </c>
       <c r="B516">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C516" t="s">
         <v>512</v>
@@ -10468,7 +10468,7 @@
         <v>1573</v>
       </c>
       <c r="B517">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C517" t="s">
         <v>513</v>
